--- a/biology/Botanique/Halophila/Halophila.xlsx
+++ b/biology/Botanique/Halophila/Halophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halophile
-Halophila est un genre d'herbes marines, des plantes monocotylédones sous-marines de la famille des Hydrocharitaceae. Le nom Halophila dérive du grec ἅλς / hals (« sel ») et φίλος / philos (« ami »)[1], pour désigner une plante exclusivement marine.
+Halophila est un genre d'herbes marines, des plantes monocotylédones sous-marines de la famille des Hydrocharitaceae. Le nom Halophila dérive du grec ἅλς / hals (« sel ») et φίλος / philos (« ami »), pour désigner une plante exclusivement marine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, dont les caractères distinctifs sont les suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, dont les caractères distinctifs sont les suivants :
 rhizome jusqu'à 1,5 cm de large, densément recouvert de débris de fibres de feuilles déchiquetées,
 nombreuses racines, non ramifiées, de 10 à 20 cm de long et 3 à 5 mm de large,
 feuilles de 30 à 150 cm de long et 1,25 à 1,75 cm de large, sans gaine à la base.
@@ -546,7 +560,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des espèces acceptées dans ce genre est encore discutée, en effet :
 selon AlgaeBase :
@@ -617,7 +633,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Halophila australis
 Halophila ovalis subsp. australis (Doty &amp; B.C.Stone) Hartog, 1970
@@ -691,6 +709,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -717,6 +737,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -742,7 +764,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Halophila  Girard, 1853 (ICZN) est un synonyme de Platymantis Tschudi, 1838.</t>
         </is>
